--- a/xls/mode.xlsx
+++ b/xls/mode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\360MoveData\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MY Front end\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30AEE7F-3EF6-4A7C-BC0E-908C0D420FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02E66B-AA35-4946-88FC-B3E879B2D18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC96946E-B3D1-48BD-A437-F4E92EBB04D3}"/>
+    <workbookView xWindow="3960" yWindow="2112" windowWidth="17280" windowHeight="8964" xr2:uid="{FC96946E-B3D1-48BD-A437-F4E92EBB04D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,15 +402,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64C3E7B-5D03-4371-95A8-34E6EDC6A5F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>